--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.76653487623265</v>
+        <v>89.30581200724703</v>
       </c>
       <c r="D2" t="n">
-        <v>26.13577736070188</v>
+        <v>23.58095018086316</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.74779260464388</v>
+        <v>89.65131489634959</v>
       </c>
       <c r="D3" t="n">
-        <v>23.61482736208905</v>
+        <v>22.02818395316732</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.30950538822469</v>
+        <v>85.06986826167199</v>
       </c>
       <c r="D4" t="n">
-        <v>22.86552134469899</v>
+        <v>20.6676153888079</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99901780495006</v>
+        <v>85.77297973189559</v>
       </c>
       <c r="D5" t="n">
-        <v>23.63170213205029</v>
+        <v>21.34120281498015</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.01784145280702</v>
+        <v>85.7833041405658</v>
       </c>
       <c r="D6" t="n">
-        <v>21.82422200018369</v>
+        <v>22.28889209039923</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.10766129345544</v>
+        <v>84.80268946523073</v>
       </c>
       <c r="D7" t="n">
-        <v>24.41095647149155</v>
+        <v>23.00158290470877</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>80.85391229646281</v>
+        <v>84.79718536336657</v>
       </c>
       <c r="D8" t="n">
-        <v>23.969786540832</v>
+        <v>20.34435575599871</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.88380051807908</v>
+        <v>84.60044063668234</v>
       </c>
       <c r="D9" t="n">
-        <v>24.0564501064742</v>
+        <v>21.5850822762939</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>78.5359194263449</v>
+        <v>84.61900681774324</v>
       </c>
       <c r="D10" t="n">
-        <v>23.60352968778148</v>
+        <v>21.50545299434437</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>76.78532444247169</v>
+        <v>78.25604658488146</v>
       </c>
       <c r="D11" t="n">
-        <v>22.30482955226303</v>
+        <v>25.12137096097113</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.82122502410245</v>
+        <v>79.83484448845908</v>
       </c>
       <c r="D12" t="n">
-        <v>20.15300950359497</v>
+        <v>21.44236943786099</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.15424250873473</v>
+        <v>80.71734242992648</v>
       </c>
       <c r="D13" t="n">
-        <v>26.62943475531261</v>
+        <v>20.38028415398164</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>75.82762019549139</v>
+        <v>77.47327904574203</v>
       </c>
       <c r="D14" t="n">
-        <v>24.59704155162422</v>
+        <v>20.88914910601585</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.55943569530247</v>
+        <v>80.05245782816988</v>
       </c>
       <c r="D15" t="n">
-        <v>25.25437548517596</v>
+        <v>23.13558733761522</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.55612122742406</v>
+        <v>76.78491386795471</v>
       </c>
       <c r="D16" t="n">
-        <v>21.63961877474314</v>
+        <v>19.39498304229029</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.08675332664274</v>
+        <v>71.2801511628181</v>
       </c>
       <c r="D17" t="n">
-        <v>23.46684046878617</v>
+        <v>23.00782997511965</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.46798447627533</v>
+        <v>75.52634625502129</v>
       </c>
       <c r="D18" t="n">
-        <v>23.695884272658</v>
+        <v>21.48773722661375</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.70816359130056</v>
+        <v>74.11719503205489</v>
       </c>
       <c r="D19" t="n">
-        <v>21.02921448862878</v>
+        <v>23.11105400337967</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.69461923897835</v>
+        <v>67.40125110197974</v>
       </c>
       <c r="D20" t="n">
-        <v>23.66468751782192</v>
+        <v>23.18086792921968</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.65977942447306</v>
+        <v>69.47181949200719</v>
       </c>
       <c r="D21" t="n">
-        <v>21.80734332414172</v>
+        <v>21.8364416308822</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>66.69697628128429</v>
+        <v>70.9905148504722</v>
       </c>
       <c r="D22" t="n">
-        <v>22.35508219263181</v>
+        <v>21.56807178897219</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.34649114701264</v>
+        <v>64.7775773649459</v>
       </c>
       <c r="D23" t="n">
-        <v>24.15011761476931</v>
+        <v>24.41838178935944</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>72.27832695020309</v>
+        <v>67.86491984304921</v>
       </c>
       <c r="D24" t="n">
-        <v>25.59351479100954</v>
+        <v>24.89432685911376</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>63.33529991766139</v>
+        <v>67.63928595581551</v>
       </c>
       <c r="D25" t="n">
-        <v>25.85670737939516</v>
+        <v>21.47349712250843</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.74634229044226</v>
+        <v>66.06528980601929</v>
       </c>
       <c r="D26" t="n">
-        <v>26.63888444772057</v>
+        <v>22.64221878221428</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>69.5175321913365</v>
+        <v>65.72628608363733</v>
       </c>
       <c r="D27" t="n">
-        <v>22.71374159561168</v>
+        <v>25.33347825195426</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.16424657482487</v>
+        <v>60.58603328617387</v>
       </c>
       <c r="D28" t="n">
-        <v>23.99525612111955</v>
+        <v>25.54314642919204</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.40809472555095</v>
+        <v>59.81668170497071</v>
       </c>
       <c r="D29" t="n">
-        <v>25.38235598852847</v>
+        <v>18.93204780667486</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.32121168226293</v>
+        <v>63.35863987379169</v>
       </c>
       <c r="D30" t="n">
-        <v>23.1039077826364</v>
+        <v>26.26026608145047</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.43987823227114</v>
+        <v>57.76439825990857</v>
       </c>
       <c r="D31" t="n">
-        <v>24.43484124523441</v>
+        <v>23.14750078795451</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.27925245440265</v>
+        <v>62.47603663850803</v>
       </c>
       <c r="D32" t="n">
-        <v>24.67054782203556</v>
+        <v>23.56291737217995</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.86054023740385</v>
+        <v>59.56489521390476</v>
       </c>
       <c r="D33" t="n">
-        <v>22.53715476716592</v>
+        <v>22.57464551156081</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.32313705395045</v>
+        <v>57.99037470521463</v>
       </c>
       <c r="D34" t="n">
-        <v>24.9849095202192</v>
+        <v>25.82934628999324</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>61.87454816097458</v>
+        <v>59.76734531169684</v>
       </c>
       <c r="D35" t="n">
-        <v>25.35548756671499</v>
+        <v>22.79146474235865</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.72085700830271</v>
+        <v>55.60119260571668</v>
       </c>
       <c r="D36" t="n">
-        <v>24.43984124700384</v>
+        <v>22.72774168562157</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.94023927736512</v>
+        <v>52.69426929939515</v>
       </c>
       <c r="D37" t="n">
-        <v>21.89179396280943</v>
+        <v>22.4032116747677</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.05600949005664</v>
+        <v>55.8774818554401</v>
       </c>
       <c r="D38" t="n">
-        <v>24.09842461209604</v>
+        <v>23.81424855822915</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.38034227740533</v>
+        <v>48.6182896816692</v>
       </c>
       <c r="D39" t="n">
-        <v>24.79076106218579</v>
+        <v>23.53835637918678</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.5707707758698</v>
+        <v>48.96187395814079</v>
       </c>
       <c r="D40" t="n">
-        <v>25.86172134195271</v>
+        <v>26.27707091680617</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.50246114290863</v>
+        <v>50.66202829463833</v>
       </c>
       <c r="D41" t="n">
-        <v>26.4280978567947</v>
+        <v>21.48247327908179</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.33678861191003</v>
+        <v>52.47310519378906</v>
       </c>
       <c r="D42" t="n">
-        <v>22.08229359728297</v>
+        <v>22.71078914763396</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.63365535089432</v>
+        <v>48.1895752817459</v>
       </c>
       <c r="D43" t="n">
-        <v>21.19372462402915</v>
+        <v>24.28570616705214</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12305349659582</v>
+        <v>44.2562858515381</v>
       </c>
       <c r="D44" t="n">
-        <v>23.04294948420936</v>
+        <v>23.76538523388669</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.36757329290256</v>
+        <v>48.41778276200622</v>
       </c>
       <c r="D45" t="n">
-        <v>23.82305490895522</v>
+        <v>21.18056561043365</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.38680719755664</v>
+        <v>47.07034619163515</v>
       </c>
       <c r="D46" t="n">
-        <v>23.24575521720742</v>
+        <v>27.89537767812998</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.65606520051698</v>
+        <v>49.97022186100857</v>
       </c>
       <c r="D47" t="n">
-        <v>21.80097254588288</v>
+        <v>23.28994618114704</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.61241122250503</v>
+        <v>42.99282317257323</v>
       </c>
       <c r="D48" t="n">
-        <v>24.79685096048948</v>
+        <v>20.94366645827627</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.21227341155161</v>
+        <v>45.80986532384885</v>
       </c>
       <c r="D49" t="n">
-        <v>22.8138446955595</v>
+        <v>21.43405451622256</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.94303706480638</v>
+        <v>38.483242944979</v>
       </c>
       <c r="D50" t="n">
-        <v>27.23407253221216</v>
+        <v>20.41437150740207</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.68519064538401</v>
+        <v>42.12847466599854</v>
       </c>
       <c r="D51" t="n">
-        <v>26.22111587166929</v>
+        <v>23.98541016230162</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>44.01931909043395</v>
+        <v>36.75800847414538</v>
       </c>
       <c r="D52" t="n">
-        <v>24.04699592358764</v>
+        <v>22.60817930881993</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.86372890627752</v>
+        <v>37.65869542140014</v>
       </c>
       <c r="D53" t="n">
-        <v>23.56118769665182</v>
+        <v>24.54049083448605</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>42.80424007662727</v>
+        <v>40.58778156992121</v>
       </c>
       <c r="D54" t="n">
-        <v>19.32378323128266</v>
+        <v>19.20645462952249</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.18720200983059</v>
+        <v>39.9515349522304</v>
       </c>
       <c r="D55" t="n">
-        <v>19.18071997407337</v>
+        <v>25.80741495663695</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.9107505828462</v>
+        <v>33.27272823879623</v>
       </c>
       <c r="D56" t="n">
-        <v>22.71977809599347</v>
+        <v>24.83076556738138</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.00101385113289</v>
+        <v>35.07965080638825</v>
       </c>
       <c r="D57" t="n">
-        <v>23.66746234377546</v>
+        <v>24.05484404068638</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.19939867467543</v>
+        <v>31.79506423878505</v>
       </c>
       <c r="D58" t="n">
-        <v>23.56795232289696</v>
+        <v>24.71992981270948</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.62319172300354</v>
+        <v>31.78470732820995</v>
       </c>
       <c r="D59" t="n">
-        <v>27.70795638763487</v>
+        <v>22.09981993801172</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.11876713335374</v>
+        <v>30.24125265393412</v>
       </c>
       <c r="D60" t="n">
-        <v>24.5673202057687</v>
+        <v>23.08616299231133</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.32173235995128</v>
+        <v>25.35618154608706</v>
       </c>
       <c r="D61" t="n">
-        <v>23.37699317091567</v>
+        <v>25.55027340444785</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.57027696094251</v>
+        <v>24.48241153722611</v>
       </c>
       <c r="D62" t="n">
-        <v>25.44838332198374</v>
+        <v>23.09594786772573</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.64550144545167</v>
+        <v>30.30849165540194</v>
       </c>
       <c r="D63" t="n">
-        <v>23.97570136784732</v>
+        <v>20.88224522451216</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.82339246737472</v>
+        <v>29.2096577788169</v>
       </c>
       <c r="D64" t="n">
-        <v>25.0485384433597</v>
+        <v>21.5529095107496</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.37704151119478</v>
+        <v>24.52775795516047</v>
       </c>
       <c r="D65" t="n">
-        <v>24.77438983868171</v>
+        <v>21.91980317959796</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>22.10470935739144</v>
+        <v>28.1191767289107</v>
       </c>
       <c r="D66" t="n">
-        <v>19.8088611486223</v>
+        <v>20.22201042135966</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.15352044354979</v>
+        <v>22.44711171219899</v>
       </c>
       <c r="D67" t="n">
-        <v>26.0794689320241</v>
+        <v>22.08252846092648</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.5724680689007</v>
+        <v>22.49604304007676</v>
       </c>
       <c r="D68" t="n">
-        <v>23.96024197946663</v>
+        <v>24.59115431204256</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>18.57836007500348</v>
+        <v>23.42346493134963</v>
       </c>
       <c r="D69" t="n">
-        <v>26.4193414243748</v>
+        <v>22.09115128223555</v>
       </c>
     </row>
   </sheetData>
